--- a/src/main/resources/excel/data_temp4.xlsx
+++ b/src/main/resources/excel/data_temp4.xlsx
@@ -1752,8 +1752,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -1830,22 +1830,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1858,19 +1850,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1889,8 +1879,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1904,10 +1903,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1920,7 +1935,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1930,13 +1945,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1959,15 +1967,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2000,7 +2000,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2012,31 +2048,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2054,37 +2078,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2096,7 +2120,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2114,13 +2138,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2132,43 +2162,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2180,7 +2174,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2227,17 +2227,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2257,6 +2259,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2268,6 +2279,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2286,26 +2306,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2314,10 +2314,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2326,133 +2326,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2910,11 +2910,11 @@
   <dimension ref="A1:AQ157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19289,27 +19289,27 @@
     </row>
   </sheetData>
   <dataValidations count="11">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 D16 P16 AC16 D17 P17 AC17 D18 P18 AC18 D19 P19 AC19 D20 P20 AC20 D21 P21 AC21 D22 P22 AC22 D23 P23 AC23 D24 P24 AC24 D25 P25 AC25 D26 P26 AC26 D27 P27 AC27 D28 P28 AC28 D29 P29 AC29 D30 P30 AC30 D31 P31 AC31 D32 P32 AC32 D33 P33 AC33 D34 P34 AC34 D35 P35 AC35 D38 P38 AC38 D39 P39 AC39 D40 P40 AC40 D41 P41 AC41 D45 P45 AC45 D46 P46 AC46 D49 P49 AC49 D50 P50 AC50 D58 P58 AC58 D62 P62 AC62 AC66 AC67 D70 P70 AC70 D71 P71 AC71 D74 P74 AC74 D75 P75 AC75 D82 P82 AC82 D102 P102 AC102 D103 P103 AC103 D108 P108 AC108 D109 P109 AC109 D110 P110 AC110 D111 P111 AC111 D120 P120 AC120 D121 P121 AC121 D122 P122 AC122 D123 P123 AC123 D124 P124 AC124 D137 P137 AC137 AC144 AC145 AC146 AC147 AC148 AC149 D150 AC150 AC151 AC152 AC153 AC154 AC155 D156 AC156 D1:D15 D36:D37 D42:D44 D47:D48 D51:D57 D60:D61 D63:D65 D66:D67 D68:D69 D72:D73 D76:D79 D80:D81 D83:D84 D85:D87 D88:D90 D91:D95 D96:D97 D98:D99 D100:D101 D104:D105 D106:D107 D112:D119 D125:D126 D127:D128 D129:D134 D135:D136 D138:D143 D144:D149 D151:D155 D157:D1048576 E1:E2 P1:P15 P36:P37 P42:P44 P47:P48 P51:P57 P60:P61 P63:P65 P66:P67 P68:P69 P72:P73 P76:P79 P80:P81 P83:P84 P85:P87 P88:P90 P91:P95 P96:P97 P98:P99 P100:P101 P104:P105 P106:P107 P112:P119 P125:P126 P127:P128 P129:P134 P135:P136 P138:P141 AC1:AC7 AC9:AC15 AC36:AC37 AC42:AC44 AC47:AC48 AC51:AC57 AC60:AC61 AC63:AC65 AC68:AC69 AC72:AC73 AC76:AC79 AC80:AC81 AC83:AC84 AC85:AC87 AC88:AC90 AC91:AC95 AC96:AC97 AC98:AC99 AC100:AC101 AC104:AC105 AC106:AC107 AC112:AC119 AC125:AC126 AC127:AC128 AC129:AC134 AC135:AC136 AC138:AC143 AC157:AC1048576 AD1:AD2 AD158:AD1048576 AH1:AH2 L1:O2 Q1:AB2 AJ1:AL2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q16:R16 Q17:R17 Q18:R18 Q19:R19 Q20:R20 Q21:R21 Q22:R22 Q23:R23 Q24:R24 Q25:R25 Q26:R26 Q27:R27 Q28:R28 Q29:R29 Q30:R30 Q31:R31 Q32:R32 Q33:R33 Q34:R34 Q35:R35 Q38:R38 Q39:R39 Q40:R40 Q41:R41 Q45:R45 Q46:R46 Q49:R49 Q50:R50 Q58:R58 Q62:R62 Q70:R70 Q71:R71 Q74:R74 Q75:R75 Q82:R82 Q102:R102 Q103:R103 Q108:R108 Q109:R109 Q110:R110 Q111:R111 Q120:R120 Q121:R121 Q122:R122 Q123:R123 Q124:R124 Q137:R137 Q144:R144 Q145:R145 Q146:R146 Q147:R147 Q148:R148 Q149:R149 Q150:R150 Q151:R151 Q152:R152 Q153:R153 Q154:R154 Q155:R155 Q156:R156 Q3:R15 Q36:R37 Q60:R61 Q66:R67 Q68:R69 Q72:R73 Q80:R81 Q96:R97 Q98:R99 Q100:R101 Q104:R105 Q106:R107 Q47:R48 Q83:R84 Q125:R126 Q127:R128 Q135:R136 Q42:R44 Q63:R65 Q51:R57 Q76:R79 Q85:R87 Q88:R90 Q91:R95 Q112:R119 Q129:R134 Q138:R143">
       <formula1>"盾枪兵,长戟兵,重骑兵,骠骑兵,火矢兵,连弩兵"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 D16 P16 AC16 D17 P17 AC17 D18 P18 AC18 D19 P19 AC19 D20 P20 AC20 D21 P21 AC21 D22 P22 AC22 D23 P23 AC23 D24 P24 AC24 D25 P25 AC25 D26 P26 AC26 D27 P27 AC27 D28 P28 AC28 D29 P29 AC29 D30 P30 AC30 D31 P31 AC31 D32 P32 AC32 D33 P33 AC33 D34 P34 AC34 D35 P35 AC35 D38 P38 AC38 D39 P39 AC39 D40 P40 AC40 D41 P41 AC41 D45 P45 AC45 D46 P46 AC46 D49 P49 AC49 D50 P50 AC50 D58 P58 AC58 D62 P62 AC62 AC66 AC67 D70 P70 AC70 D71 P71 AC71 D74 P74 AC74 D75 P75 AC75 D82 P82 AC82 D102 P102 AC102 D103 P103 AC103 D108 P108 AC108 D109 P109 AC109 D110 P110 AC110 D111 P111 AC111 D120 P120 AC120 D121 P121 AC121 D122 P122 AC122 D123 P123 AC123 D124 P124 AC124 D137 P137 AC137 AC144 AC145 AC146 AC147 AC148 AC149 D150 AC150 AC151 AC152 AC153 AC154 AC155 D156 AC156 D1:D15 D36:D37 D42:D44 D47:D48 D51:D57 D60:D61 D63:D65 D66:D67 D68:D69 D72:D73 D76:D79 D80:D81 D83:D84 D85:D87 D88:D90 D91:D95 D96:D97 D98:D99 D100:D101 D104:D105 D106:D107 D112:D119 D125:D126 D127:D128 D129:D134 D135:D136 D138:D143 D144:D149 D151:D155 D157:D1048576 E1:E2 P1:P15 P36:P37 P42:P44 P47:P48 P51:P57 P60:P61 P63:P65 P66:P67 P68:P69 P72:P73 P76:P79 P80:P81 P83:P84 P85:P87 P88:P90 P91:P95 P96:P97 P98:P99 P100:P101 P104:P105 P106:P107 P112:P119 P125:P126 P127:P128 P129:P134 P135:P136 P138:P141 AC1:AC7 AC9:AC15 AC36:AC37 AC42:AC44 AC47:AC48 AC51:AC57 AC60:AC61 AC63:AC65 AC68:AC69 AC72:AC73 AC76:AC79 AC80:AC81 AC83:AC84 AC85:AC87 AC88:AC90 AC91:AC95 AC96:AC97 AC98:AC99 AC100:AC101 AC104:AC105 AC106:AC107 AC112:AC119 AC125:AC126 AC127:AC128 AC129:AC134 AC135:AC136 AC138:AC143 AC157:AC1048576 AD1:AD2 AD158:AD1048576 AH1:AH2 L1:O2 Q1:AB2 AJ1:AL2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16 AH16 A17 AH17 A18 AH18 A19 AH19 A20 AH20 A21 AH21 A22 AH22 A23 AH23 A24 AH24 A25 AH25 A26 AH26 A27 AH27 A28 AH28 A29 AH29 A30 AH30 A31 AH31 A32 AH32 A33 AH33 A34 AH34 A35 AH35 A38 AH38 A39 AH39 A40 AH40 A41 AH41 A45 AH45 A46 AH46 A49 AH49 A50 AH50 A62 AH62 A66 AH66 A67 AH67 A70 AH70 A71 AH71 A74 AH74 A75 AH75 A76 A77 A78 A79 A80 A81 A82 AH82 A91 A102 AH102 A103 AH103 AH104 AH105 A108 AH108 A109 AH109 A110 AH110 A111 AH111 A120 AH120 A121 AH121 A122 AH122 A123 AH123 A124 AH124 A133 A134 A137 AH137 A144 AH144 A145 AH145 A146 AH146 A147 AH147 A148 AH148 A149 AH149 AH150 AH151 A152 AH152 A153 AH153 A154 AH154 A155 AH155 A156 AH156 A3:A15 A36:A37 A42:A44 A47:A48 A51:A57 A58:A61 A63:A65 A68:A69 A72:A73 A83:A84 A85:A87 A88:A90 A92:A95 A96:A97 A98:A99 A100:A101 A104:A105 A106:A107 A112:A119 A125:A126 A127:A128 A129:A132 A135:A136 A138:A143 A150:A151 A157:A1048576 AD3:AD157 AH3:AH15 AH36:AH37 AH42:AH44 AH47:AH48 AH51:AH57 AH58:AH61 AH63:AH65 AH68:AH69 AH72:AH73 AH76:AH79 AH80:AH81 AH83:AH84 AH85:AH87 AH88:AH90 AH91:AH95 AH96:AH97 AH98:AH99 AH100:AH101 AH106:AH107 AH112:AH119 AH125:AH126 AH127:AH128 AH129:AH134 AH135:AH136 AH138:AH143">
       <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O16 O17 O18 O19 O20 O21 O22 O23 O24 O25 O26 O27 O28 O29 O30 O31 O32 O33 O34 O35 O38 O39 O40 O41 O45 O46 O49 O50 O58 O62 O70 O71 O74 O75 O82 O102 O103 O108 O109 O110 O111 O120 O121 O122 O123 O124 O137 O143 O150 O153 O154 O155 O156 O3:O15 O36:O37 O42:O44 O47:O48 O51:O57 O60:O61 O63:O65 O66:O67 O68:O69 O72:O73 O76:O79 O80:O81 O83:O84 O85:O87 O88:O90 O91:O95 O96:O97 O98:O99 O100:O101 O104:O105 O106:O107 O112:O119 O125:O126 O127:O128 O129:O134 O135:O136 O138:O141">
-      <formula1>"刀,剑,枪,弓,扇"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N16 N17 N18 N19 N20 N21 N22 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N35 N38 N39 N40 N41 N45 N46 N49 N50 N58 N62 N70 N71 N74 N75 N82 N102 N103 N108 N109 N110 N111 N120 N121 N122 N123 N124 N137 N143 N144 N145 O145 N146 N147 N149 N150 N151 N152 N153 N154 N155 N156 N3:N15 N36:N37 N42:N44 N47:N48 N51:N57 N60:N61 N63:N65 N66:N67 N68:N69 N72:N73 N76:N79 N80:N81 N83:N84 N85:N87 N88:N90 N91:N95 N96:N97 N98:N99 N100:N101 N104:N105 N106:N107 N112:N119 N125:N126 N127:N128 N129:N134 N135:N136 N138:N141">
-      <formula1>"枪,弓,骑"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M16 M17 M18 M19 M20 M21 M22 M23 M24 M25 M26 M27 M28 M29 M30 M31 M32 M33 M34 M35 M38 M39 M40 M41 M45 M46 M49 M50 M58 M62 M70 M71 M74 M75 M82 M102 M103 M108 M109 M110 M111 M120 M121 M122 M123 M124 M137 M144 M145 M146 M147 M148 M150 M151 M152 M153 M154 M155 M156 M3:M15 M36:M37 M42:M44 M47:M48 M51:M57 M60:M61 M63:M65 M66:M67 M68:M69 M72:M73 M76:M79 M80:M81 M83:M84 M85:M87 M88:M90 M91:M95 M96:M97 M98:M99 M100:M101 M104:M105 M106:M107 M112:M119 M125:M126 M127:M128 M129:M134 M135:M136 M138:M143">
-      <formula1>"勇将型,将军型,智将型,策士型,强袭勇将型,统帅将军型,鬼才智将型,天命策士型"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E38 E39 E40 E41 E45 E46 E49 E50 E58 E62 E70 E71 E74 E75 E82 E102 E103 E108 E109 E110 E111 E120 E121 E122 E123 E124 E137 E146 E147 E148 E150 E152 E153 E154 E3:E15 E36:E37 E42:E44 E47:E48 E51:E57 E60:E61 E63:E65 E66:E67 E68:E69 E72:E73 E76:E79 E80:E81 E83:E84 E85:E87 E88:E90 E91:E95 E96:E97 E98:E99 E100:E101 E104:E105 E106:E107 E112:E119 E125:E126 E127:E128 E129:E134 E135:E136 E138:E143">
       <formula1>"魏,蜀,吴,群"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L16 L17 L18 L19 L20 L21 L22 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L38 L39 L40 L41 L45 L46 L49 L50 L58 L62 L70 L71 L74 L75 L82 L102 L103 L108 L109 L110 L111 L120 L121 L122 L123 L124 L137 L143 L147 L148 L150 L151 L152 L153 L154 L3:L15 L36:L37 L42:L44 L47:L48 L51:L57 L60:L61 L63:L65 L66:L67 L68:L69 L72:L73 L76:L79 L80:L81 L83:L84 L85:L87 L88:L90 L91:L95 L96:L97 L98:L99 L100:L101 L104:L105 L106:L107 L112:L119 L125:L126 L127:L128 L129:L134 L135:L136 L138:L141">
       <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M16 M17 M18 M19 M20 M21 M22 M23 M24 M25 M26 M27 M28 M29 M30 M31 M32 M33 M34 M35 M38 M39 M40 M41 M45 M46 M49 M50 M58 M62 M70 M71 M74 M75 M82 M102 M103 M108 M109 M110 M111 M120 M121 M122 M123 M124 M137 M144 M145 M146 M147 M148 M150 M151 M152 M153 M154 M155 M156 M3:M15 M36:M37 M42:M44 M47:M48 M51:M57 M60:M61 M63:M65 M66:M67 M68:M69 M72:M73 M76:M79 M80:M81 M83:M84 M85:M87 M88:M90 M91:M95 M96:M97 M98:M99 M100:M101 M104:M105 M106:M107 M112:M119 M125:M126 M127:M128 M129:M134 M135:M136 M138:M143">
+      <formula1>"勇将型,将军型,智将型,策士型,强袭勇将型,统帅将军型,鬼才智将型,天命策士型"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N16 N17 N18 N19 N20 N21 N22 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N35 N38 N39 N40 N41 N45 N46 N49 N50 N58 N62 N70 N71 N74 N75 N82 N102 N103 N108 N109 N110 N111 N120 N121 N122 N123 N124 N137 N143 N144 N145 O145 N146 N147 N149 N150 N151 N152 N153 N154 N155 N156 N3:N15 N36:N37 N42:N44 N47:N48 N51:N57 N60:N61 N63:N65 N66:N67 N68:N69 N72:N73 N76:N79 N80:N81 N83:N84 N85:N87 N88:N90 N91:N95 N96:N97 N98:N99 N100:N101 N104:N105 N106:N107 N112:N119 N125:N126 N127:N128 N129:N134 N135:N136 N138:N141">
+      <formula1>"枪,弓,骑"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O16 O17 O18 O19 O20 O21 O22 O23 O24 O25 O26 O27 O28 O29 O30 O31 O32 O33 O34 O35 O38 O39 O40 O41 O45 O46 O49 O50 O58 O62 O70 O71 O74 O75 O82 O102 O103 O108 O109 O110 O111 O120 O121 O122 O123 O124 O137 O143 O150 O153 O154 O155 O156 O3:O15 O36:O37 O42:O44 O47:O48 O51:O57 O60:O61 O63:O65 O66:O67 O68:O69 O72:O73 O76:O79 O80:O81 O83:O84 O85:O87 O88:O90 O91:O95 O96:O97 O98:O99 O100:O101 O104:O105 O106:O107 O112:O119 O125:O126 O127:O128 O129:O134 O135:O136 O138:O141">
+      <formula1>"刀,剑,枪,弓,扇"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S16:AB16 S17:AB17 S18:AB18 S19:T19 U19:V19 W19:AB19 S20:T20 U20:V20 W20:X20 Y20:Z20 AA20:AB20 S21:T21 U21:V21 W21 X21 Y21:Z21 AA21:AB21 S22:AB22 S23:AB23 S24:T24 U24:V24 W24:X24 Y24:AB24 S25:T25 U25:V25 W25:X25 Y25:AB25 S26:AB26 S27:AB27 S28:AB28 S29:AB29 S30:T30 U30:V30 W30:X30 Y30:Z30 AA30:AB30 S31:T31 U31:X31 Y31:Z31 AA31:AB31 S32:T32 U32:X32 Y32:Z32 AA32:AB32 S33:AB33 S34:AB34 S35:AB35 S38:AB38 S39:AB39 S40:AB40 S41:AB41 S45:AB45 S46:AB46 S49:AB49 S50:AB50 S62:AB62 S70:AB70 S71:AB71 S74:AB74 S75:AB75 S82:AB82 S102:AB102 S103:AB103 S108:AB108 S109:AB109 S110:AB110 S111:AB111 S120:AB120 S121:AB121 S122:AB122 S123:AB123 S124:AB124 S137:AB137 S144:T144 U144:V144 W144:X144 Y144:Z144 AA144:AB144 S145:T145 U145:V145 W145:X145 Y145:Z145 AA145:AB145 S146:T146 U146:V146 W146:X146 Y146:Z146 AA146:AB146 S147:T147 U147:V147 W147:X147 Y147:Z147 AA147:AB147 S148:T148 U148:V148 W148:X148 Y148:Z148 AA148 AB148 S149:T149 U149:V149 W149 X149 Y149:Z149 AA149:AB149 S150:T150 U150:V150 W150:X150 Y150:Z150 AA150:AB150 S151:T151 U151:V151 W151 X151 Y151:Z151 AA151:AB151 S152:T152 U152:V152 W152 X152 Y152:Z152 AA152:AB152 S153:T153 U153:V153 W153 X153 Y153:Z153 AA153:AB153 S154:T154 U154:V154 W154 X154 Y154:Z154 AA154:AB154 S155:T155 U155:V155 W155 X155 Y155:Z155 AA155:AB155 S156:T156 U156:V156 W156 X156 Y156:Z156 AA156:AB156 S36:AB37 S60:AB61 S66:AB67 S68:AB69 S72:AB73 S80:AB81 S96:AB97 S98:AB99 S100:AB101 S104:AB105 S106:AB107 S47:AB48 S83:AB84 S125:AB126 S127:AB128 S135:AB136 S42:AB44 S63:AB65 S3:AB15 S51:AB57 S85:AB87 S88:AB90 S76:AB79 S91:AB95 S112:AB119 S129:AB134 S138:AB143">
       <formula1>"武锋,三疑,兵道,军略,金鼓,文伐"</formula1>
